--- a/example.xlsx
+++ b/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
@@ -31,34 +31,22 @@
     <t xml:space="preserve">www.google.com.br</t>
   </si>
   <si>
-    <t xml:space="preserve">216.58.202.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.globo.com</t>
   </si>
   <si>
     <t xml:space="preserve">globo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">186.192.81.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazon.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.217.29.165</t>
   </si>
   <si>
     <t xml:space="preserve">msn.com.br</t>
   </si>
   <si>
-    <t xml:space="preserve">208.113.218.221</t>
-  </si>
-  <si>
     <t xml:space="preserve">bbc.com</t>
   </si>
   <si>
-    <t xml:space="preserve">52.94.225.243</t>
+    <t xml:space="preserve">www.renanporto.com.br</t>
   </si>
 </sst>
 </file>
@@ -141,30 +129,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,49 +164,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="1047135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1666,6 +1645,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="www.google.com.br"/>
     <hyperlink ref="A3" r:id="rId2" display="www.globo.com"/>
+    <hyperlink ref="A8" r:id="rId3" display="www.renanporto.com.br"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
